--- a/заказы/филиалы и опт/2024/11,24/11,11,24 Ост СЫР филиалы/заказ СЫРЫ от 13,11,24 на 18,11,24.xlsx
+++ b/заказы/филиалы и опт/2024/11,24/11,11,24 Ост СЫР филиалы/заказ СЫРЫ от 13,11,24 на 18,11,24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\11,11,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\11,24\11,11,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F573E5B-C8CC-46BD-A543-D8368A9CBB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72381DCB-E3EF-47AF-9DB6-8884E2FDE251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Мелитополь" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Луганск!$A$3:$I$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Мелитополь!$A$3:$I$43</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -303,7 +303,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +325,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -369,10 +381,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -396,14 +404,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -416,6 +417,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -790,80 +807,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -874,25 +891,25 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>1060</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>106</v>
       </c>
       <c r="G4" s="3">
         <v>0.18</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>190.79999999999998</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
@@ -901,23 +918,23 @@
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
         <f>E5/7</f>
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>3.5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
@@ -926,25 +943,25 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>950</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>95</v>
       </c>
       <c r="G6" s="3">
         <v>0.18</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>171</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -953,25 +970,25 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>285</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f>E7/15</f>
         <v>19</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>2.5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>285</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -982,25 +999,25 @@
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>1000</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13">
+      <c r="E8" s="14"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0.18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>180</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
@@ -1009,23 +1026,23 @@
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11">
         <f>E9/15</f>
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>2.5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1036,50 +1053,50 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>870</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>87</v>
       </c>
       <c r="G10" s="3">
         <v>0.18</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f>G10*D10</f>
         <v>156.6</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5039609</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0.4</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f>G11*D11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
@@ -1088,23 +1105,23 @@
       <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11">
         <f>E12/15</f>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>2.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1112,53 +1129,53 @@
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>920</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13">
+      <c r="E13" s="14"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>92</v>
       </c>
       <c r="G13" s="3">
         <v>0.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f>G13*D13</f>
         <v>184</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0.4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f>G14*D14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
@@ -1167,50 +1184,50 @@
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>10</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>630</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13">
+      <c r="E15" s="14"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>63</v>
       </c>
       <c r="G15" s="3">
         <v>0.18</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>G15*D15</f>
         <v>113.39999999999999</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0.4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f>G16*D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
@@ -1219,23 +1236,23 @@
       <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="13">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>3.5</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1246,23 +1263,23 @@
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f>G18*D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
@@ -1271,23 +1288,23 @@
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0.18</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f>G19*D19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
@@ -1296,25 +1313,25 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>1206</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13">
+      <c r="E20" s="14"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>67</v>
       </c>
       <c r="G20" s="3">
         <v>0.2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>G20*D20</f>
         <v>241.20000000000002</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
@@ -1323,23 +1340,23 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="13">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>3.5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1350,25 +1367,25 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>18</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>792</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13">
+      <c r="E22" s="14"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>44</v>
       </c>
       <c r="G22" s="3">
         <v>0.2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>158.4</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
@@ -1377,23 +1394,23 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="13">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>3.5</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f t="shared" ref="H23:H24" si="0">E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1404,23 +1421,23 @@
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11">
         <f>E24/15</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>7.5</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1431,25 +1448,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>90</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13">
+      <c r="E25" s="16"/>
+      <c r="F25" s="11">
         <f t="shared" ref="F25:F31" si="1">D25/C25</f>
         <v>15</v>
       </c>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" ref="H25:H31" si="2">G25*D25</f>
         <v>9</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
@@ -1458,25 +1475,25 @@
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>6</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>276</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13">
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="G26" s="3">
         <v>0.1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="2"/>
         <v>27.6</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
@@ -1485,25 +1502,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <v>368</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13">
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="G27" s="3">
         <v>0.1</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="2"/>
         <v>36.800000000000004</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
@@ -1512,23 +1529,23 @@
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>8</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>0.1</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
@@ -1537,23 +1554,23 @@
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>16</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="13">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
@@ -1562,25 +1579,25 @@
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>16</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>208</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13">
+      <c r="E30" s="16"/>
+      <c r="F30" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="2"/>
         <v>29.120000000000005</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
@@ -1589,50 +1606,50 @@
       <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <v>492</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13">
+      <c r="E31" s="16"/>
+      <c r="F31" s="11">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="G31" s="3">
         <v>0.18</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="2"/>
         <v>88.56</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
-      <c r="A32" s="6">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1">
+      <c r="A32" s="26">
         <v>5039845</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30">
         <f>E32/15</f>
         <v>0</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="31">
         <v>2.5</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="32">
         <f t="shared" ref="H32:H35" si="3">E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1643,23 +1660,23 @@
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="11">
         <f>E33/7.8</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>1.3</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1670,23 +1687,23 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="11">
         <f>E34/16.5</f>
         <v>0</v>
       </c>
       <c r="G34" s="3">
         <v>3.2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1697,23 +1714,23 @@
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="11">
         <f>E35/16.5</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>3.2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1724,23 +1741,23 @@
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="11">
         <f t="shared" ref="F36:F42" si="4">D36/C36</f>
         <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>0.4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" ref="H36:H41" si="5">G36*D36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
@@ -1749,23 +1766,23 @@
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>28</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>0.4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
@@ -1774,25 +1791,25 @@
       <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <v>672</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="13">
+      <c r="E38" s="16"/>
+      <c r="F38" s="11">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="G38" s="3">
         <v>0.18</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <f t="shared" si="5"/>
         <v>120.96</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
@@ -1801,23 +1818,23 @@
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="13">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>0.18</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
@@ -1826,25 +1843,25 @@
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>16</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>128</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="13">
+      <c r="E40" s="16"/>
+      <c r="F40" s="11">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G40" s="3">
         <v>0.18</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <f t="shared" si="5"/>
         <v>23.04</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
@@ -1853,25 +1870,25 @@
       <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <v>16</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <v>144</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="13">
+      <c r="E41" s="16"/>
+      <c r="F41" s="11">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G41" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f t="shared" si="5"/>
         <v>20.160000000000004</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
@@ -1880,42 +1897,42 @@
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>16</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="13">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0.18</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <f>D42*G42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
         <v>2035.64</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="10">
+      <c r="A46" s="8">
         <f>H43+Бердянск!H43+Донецк!H43+Луганск!H43</f>
         <v>3400.1</v>
       </c>
@@ -1936,80 +1953,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448066F1-06A8-41EC-BC4B-F32AF7AFAB0A}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2020,25 +2037,25 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>50</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>5</v>
       </c>
       <c r="G4" s="3">
         <v>0.18</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>9</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
@@ -2047,23 +2064,23 @@
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
         <f>E5/7</f>
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>3.5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
@@ -2072,25 +2089,25 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>110</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>11</v>
       </c>
       <c r="G6" s="3">
         <v>0.18</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>19.8</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -2099,23 +2116,23 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11">
         <f>E7/15</f>
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>2.5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2126,23 +2143,23 @@
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0.18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
@@ -2151,25 +2168,25 @@
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>45</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f>E9/15</f>
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>2.5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>45</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2180,50 +2197,50 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>70</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>0.18</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f>G10*D10</f>
         <v>12.6</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5039609</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0.4</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f>G11*D11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
@@ -2232,25 +2249,25 @@
       <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
         <v>30</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <f>E12/15</f>
         <v>2</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>2.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>30</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2258,51 +2275,51 @@
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>0.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f>G13*D13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0.4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f>G14*D14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
@@ -2311,50 +2328,50 @@
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>10</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>320</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13">
+      <c r="E15" s="14"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>32</v>
       </c>
       <c r="G15" s="3">
         <v>0.18</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>G15*D15</f>
         <v>57.599999999999994</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0.4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f>G16*D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
@@ -2363,25 +2380,25 @@
       <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
         <v>161</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>23</v>
       </c>
       <c r="G17" s="3">
         <v>3.5</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>161</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2392,23 +2409,23 @@
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f>G18*D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
@@ -2417,23 +2434,23 @@
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0.18</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f>G19*D19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
@@ -2442,25 +2459,25 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>126</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13">
+      <c r="E20" s="14"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>7</v>
       </c>
       <c r="G20" s="3">
         <v>0.2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>G20*D20</f>
         <v>25.200000000000003</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
@@ -2469,23 +2486,23 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="13">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>3.5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2496,25 +2513,25 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>18</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>144</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13">
+      <c r="E22" s="14"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0.2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>28.8</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
@@ -2523,23 +2540,23 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="13">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>3.5</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2550,23 +2567,23 @@
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11">
         <f>E24/15</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>7.5</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f>E24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2577,25 +2594,25 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <v>42</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13">
+      <c r="E25" s="16"/>
+      <c r="F25" s="11">
         <f t="shared" ref="F25:F31" si="0">D25/C25</f>
         <v>7</v>
       </c>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" ref="H25:H31" si="1">G25*D25</f>
         <v>4.2</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
@@ -2604,25 +2621,25 @@
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>6</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <v>192</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13">
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G26" s="3">
         <v>0.1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
@@ -2631,25 +2648,25 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <v>120</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13">
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G27" s="3">
         <v>0.1</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
@@ -2658,25 +2675,25 @@
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>8</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>128</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13">
+      <c r="E28" s="16"/>
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G28" s="3">
         <v>0.1</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
@@ -2685,23 +2702,23 @@
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>16</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="13">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
@@ -2710,25 +2727,25 @@
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>16</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <v>32</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13">
+      <c r="E30" s="16"/>
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="1"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
@@ -2737,48 +2754,48 @@
       <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>0.18</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
-      <c r="A32" s="6">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1">
+      <c r="A32" s="26">
         <v>5039845</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30">
         <f>E32/15</f>
         <v>0</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="31">
         <v>2.5</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="32">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2789,23 +2806,23 @@
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="11">
         <f>E33/7.8</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>1.3</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f>E33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2816,23 +2833,23 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="11">
         <f>E34/16.5</f>
         <v>0</v>
       </c>
       <c r="G34" s="3">
         <v>3.2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f>E34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2843,23 +2860,23 @@
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="11">
         <f>E35/16.5</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>3.2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f>E35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2870,25 +2887,25 @@
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>8</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>8</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13">
+      <c r="E36" s="16"/>
+      <c r="F36" s="11">
         <f t="shared" ref="F36:F42" si="2">D36/C36</f>
         <v>1</v>
       </c>
       <c r="G36" s="3">
         <v>0.4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" ref="H36:H41" si="3">G36*D36</f>
         <v>3.2</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
@@ -2897,23 +2914,23 @@
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>28</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>0.4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
@@ -2922,25 +2939,25 @@
       <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <v>176</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="13">
+      <c r="E38" s="16"/>
+      <c r="F38" s="11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G38" s="3">
         <v>0.18</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <f t="shared" si="3"/>
         <v>31.68</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
@@ -2949,23 +2966,23 @@
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="13">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>0.18</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
@@ -2974,25 +2991,25 @@
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>16</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>96</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="13">
+      <c r="E40" s="16"/>
+      <c r="F40" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G40" s="3">
         <v>0.18</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <f t="shared" si="3"/>
         <v>17.28</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
@@ -3001,23 +3018,23 @@
       <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="13">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
@@ -3026,39 +3043,39 @@
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>16</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="13">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0.18</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <f>D42*G42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
         <v>493.84000000000003</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I43" xr:uid="{959B60F6-A4C4-4E25-B7D0-7C2E7DC81891}"/>
@@ -3071,79 +3088,79 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A32" sqref="A32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3154,25 +3171,25 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>130</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>13</v>
       </c>
       <c r="G4" s="3">
         <v>0.18</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>23.4</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
@@ -3181,23 +3198,23 @@
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
         <f>E5/7</f>
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>3.5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
@@ -3206,25 +3223,25 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>100</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>10</v>
       </c>
       <c r="G6" s="3">
         <v>0.18</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>18</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -3233,25 +3250,25 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>45</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f>E7/15</f>
         <v>3</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>2.5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>45</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3262,25 +3279,25 @@
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>50</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13">
+      <c r="E8" s="14"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>0.18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>9</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
@@ -3289,23 +3306,23 @@
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11">
         <f>E9/15</f>
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>2.5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3316,50 +3333,50 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>90</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>9</v>
       </c>
       <c r="G10" s="3">
         <v>0.18</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f>G10*D10</f>
         <v>16.2</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5039609</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0.4</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f>G11*D11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
@@ -3368,23 +3385,23 @@
       <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11">
         <f>E12/15</f>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>2.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3392,51 +3409,51 @@
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>0.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f>G13*D13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0.4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f>G14*D14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
@@ -3445,48 +3462,48 @@
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>10</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0.18</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>G15*D15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0.4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f>G16*D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
@@ -3495,23 +3512,23 @@
       <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="13">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>3.5</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3522,23 +3539,23 @@
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f>G18*D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
@@ -3547,23 +3564,23 @@
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0.18</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f>G19*D19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
@@ -3572,23 +3589,23 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0.2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>G20*D20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
@@ -3597,23 +3614,23 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="13">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>3.5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3624,23 +3641,23 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>18</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0.2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
@@ -3649,23 +3666,23 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="13">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>3.5</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3676,23 +3693,23 @@
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11">
         <f>E24/15</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>7.5</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f>E24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3703,23 +3720,23 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="11">
         <f t="shared" ref="F25:F31" si="0">D25/C25</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" ref="H25:H31" si="1">G25*D25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
@@ -3728,23 +3745,23 @@
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0.1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
@@ -3753,23 +3770,23 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0.1</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
@@ -3778,23 +3795,23 @@
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>8</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>0.1</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
@@ -3803,23 +3820,23 @@
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>16</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="13">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
@@ -3828,23 +3845,23 @@
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>16</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
@@ -3853,48 +3870,48 @@
       <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>0.18</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
-      <c r="A32" s="6">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1">
+      <c r="A32" s="26">
         <v>5039845</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30">
         <f>E32/15</f>
         <v>0</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="31">
         <v>2.5</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="32">
         <f>E32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3905,23 +3922,23 @@
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="11">
         <f>E33/7.8</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>1.3</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f>E33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3932,25 +3949,25 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16">
+      <c r="D34" s="16"/>
+      <c r="E34" s="14">
         <v>49.5</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <f>E34/16.5</f>
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>3.2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f>E34</f>
         <v>49.5</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3961,23 +3978,23 @@
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="11">
         <f>E35/16.5</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>3.2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f>E35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3988,23 +4005,23 @@
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>8</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="11">
         <f t="shared" ref="F36:F42" si="2">D36/C36</f>
         <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>0.4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" ref="H36:H41" si="3">G36*D36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
@@ -4013,23 +4030,23 @@
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>28</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>0.4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
@@ -4038,23 +4055,23 @@
       <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="13">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
         <v>0.18</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
@@ -4063,23 +4080,23 @@
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="13">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>0.18</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
@@ -4088,23 +4105,23 @@
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>16</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="13">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="3">
         <v>0.18</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
@@ -4113,23 +4130,23 @@
       <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="13">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
@@ -4138,39 +4155,39 @@
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>16</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="13">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0.18</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <f>D42*G42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
         <v>161.10000000000002</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I43" xr:uid="{C5E4DEB4-C6F0-4ECE-832A-E4C75199DFB7}"/>
@@ -4182,80 +4199,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F09C8-4326-432D-A455-70D1D718EE34}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="10" style="8" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="38.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4266,23 +4283,23 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
         <f>D4/C4</f>
         <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0.18</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f>G4*D4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
@@ -4291,23 +4308,23 @@
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
         <f>E5/7</f>
         <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>3.5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
@@ -4316,23 +4333,23 @@
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
         <f>D6/C6</f>
         <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0.18</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <f>G6*D6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -4341,25 +4358,25 @@
       <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>75</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f>E7/15</f>
         <v>5</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>2.5</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <f>E7</f>
         <v>75</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4370,23 +4387,23 @@
       <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11">
         <f>D8/C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0.18</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <f>G8*D8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
@@ -4395,25 +4412,25 @@
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>45</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f>E9/15</f>
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>2.5</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>E9</f>
         <v>45</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4424,48 +4441,48 @@
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11">
         <f>D10/C10</f>
         <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0.18</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <f>G10*D10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29">
+      <c r="A11" s="24">
         <v>5039609</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11">
         <f>D11/C11</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0.4</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <f>G11*D11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
@@ -4474,23 +4491,23 @@
       <c r="B12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11">
         <f>E12/15</f>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>2.5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4498,51 +4515,51 @@
       <c r="A13" s="4">
         <v>5038855</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11">
         <f>D13/C13</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>0.2</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f>G13*D13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>5039647</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="13">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11">
         <f>D14/C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0.4</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f>G14*D14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
@@ -4551,48 +4568,48 @@
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>10</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11">
         <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0.18</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <f>G15*D15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>5039623</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>8</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="11">
         <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0.4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <f>G16*D16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
@@ -4601,25 +4618,25 @@
       <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
         <v>77</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f>E17/7</f>
         <v>11</v>
       </c>
       <c r="G17" s="3">
         <v>3.5</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <f>E17</f>
         <v>77</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4630,23 +4647,23 @@
       <c r="B18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11">
         <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f>G18*D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
@@ -4655,23 +4672,23 @@
       <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>10</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
         <f>D19/C19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>0.18</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <f>G19*D19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
@@ -4680,23 +4697,23 @@
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="13">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="11">
         <f>D20/C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0.2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <f>G20*D20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
@@ -4705,25 +4722,25 @@
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
         <v>105</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <f>E21/15</f>
         <v>7</v>
       </c>
       <c r="G21" s="3">
         <v>3.5</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <f>E21</f>
         <v>105</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4734,23 +4751,23 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>18</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="11">
         <f>D22/C22</f>
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0.2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <f>G22*D22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
@@ -4759,25 +4776,25 @@
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
         <v>150</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <f>E23/15</f>
         <v>10</v>
       </c>
       <c r="G23" s="3">
         <v>3.5</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="11">
         <f>E23</f>
         <v>150</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4788,23 +4805,23 @@
       <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="13">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11">
         <f>E24/15</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>7.5</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <f>E24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4815,23 +4832,23 @@
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="11">
         <f t="shared" ref="F25:F31" si="0">D25/C25</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <f t="shared" ref="H25:H31" si="1">G25*D25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
@@ -4840,23 +4857,23 @@
       <c r="B26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="13">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0.1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
@@ -4865,23 +4882,23 @@
       <c r="B27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0.1</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
@@ -4890,23 +4907,23 @@
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="13">
         <v>8</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>0.1</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
@@ -4915,23 +4932,23 @@
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>16</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="13">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
@@ -4940,25 +4957,25 @@
       <c r="B30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <v>16</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>208</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13">
+      <c r="E30" s="16"/>
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <f t="shared" si="1"/>
         <v>29.120000000000005</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
@@ -4967,50 +4984,50 @@
       <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>0.18</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1">
-      <c r="A32" s="6">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1">
+      <c r="A32" s="26">
         <v>5039845</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="28">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="16">
+      <c r="D32" s="29"/>
+      <c r="E32" s="33">
         <v>30</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="30">
         <f>E32/15</f>
         <v>2</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="31">
         <v>2.5</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="32">
         <f>E32</f>
         <v>30</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5021,23 +5038,23 @@
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="11">
         <f>E33/7.8</f>
         <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>1.3</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <f>E33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5048,23 +5065,23 @@
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="11">
         <f>E34/16.5</f>
         <v>0</v>
       </c>
       <c r="G34" s="3">
         <v>3.2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <f>E34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5075,23 +5092,23 @@
       <c r="B35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="11">
         <f>E35/16.5</f>
         <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>3.2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <f>E35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5102,25 +5119,25 @@
       <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>8</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>40</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13">
+      <c r="E36" s="16"/>
+      <c r="F36" s="11">
         <f t="shared" ref="F36:F42" si="2">D36/C36</f>
         <v>5</v>
       </c>
       <c r="G36" s="3">
         <v>0.4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <f t="shared" ref="H36:H41" si="3">G36*D36</f>
         <v>16</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
@@ -5129,25 +5146,25 @@
       <c r="B37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>28</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <v>196</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13">
+      <c r="E37" s="16"/>
+      <c r="F37" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G37" s="3">
         <v>0.4</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>78.400000000000006</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
@@ -5156,23 +5173,23 @@
       <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="13">
         <v>16</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="13">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
         <v>0.18</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
@@ -5181,25 +5198,25 @@
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>16</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="16">
         <v>208</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="13">
+      <c r="E39" s="16"/>
+      <c r="F39" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G39" s="3">
         <v>0.18</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
         <v>37.44</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
@@ -5208,25 +5225,25 @@
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="13">
         <v>16</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="16">
         <v>208</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="13">
+      <c r="E40" s="16"/>
+      <c r="F40" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G40" s="3">
         <v>0.18</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <f t="shared" si="3"/>
         <v>37.44</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
@@ -5235,25 +5252,25 @@
       <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="13">
         <v>16</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="16">
         <v>208</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="13">
+      <c r="E41" s="16"/>
+      <c r="F41" s="11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G41" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <f t="shared" si="3"/>
         <v>29.120000000000005</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
@@ -5262,39 +5279,39 @@
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="13">
         <v>16</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="13">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0.18</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <f>D42*G42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="5">
         <f>SUM(H4:H42)</f>
         <v>709.5200000000001</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I43" xr:uid="{69BFD19E-9F90-493D-B600-61203E84322F}"/>
